--- a/data/train/relevancy-train-78516.xlsx
+++ b/data/train/relevancy-train-78516.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
+          <t>With respect to investments on the transmission system and the priorities really goes after increasing the capacity of the existing system with great enhancing technologies such as dynamic line rating energy storage technologies reconductoring of our transmission system</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,17 +458,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STATEMENTS OF RODNEY MASNEY VICE PRESIDENT TECHNOLOGY SERVICE DELIVERY INFORMATION TECHNOLOGY OWENSILLINOIS THOMAS D BIANCULLI CHIEF TECHNOLOGY OFFICER ZEBRA TECHNOLOGIES CORPORATION DR THOMAS R KURFESS PROFESSOR AND CHAIR IN FLUID POWER AND MOTION CONTROL GEORGE W WOODRUFF SCHOOL OF MECHANICAL ENGINEERING GEORGIA INSTITUTE OF TECHNOLOGY SANJAY POONEN CHIEF OPERATING OFFICER VMWARE STATEMENT OF MR MASNEY Mr Masney</t>
+          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+          <t>You probably should think about doing the same thing with our national model energy code the IECC</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,47 +478,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
+          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>In approving our report Secretary Abraham said The management of the nuclear weapons complex is my most important responsibility as Secretary of Energy</t>
+          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yes we share a commitment with Canada to work towards energy security</t>
+          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Is it an equivalent of a 1400megawatt power station that could have been available</t>
+          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+          <t>Secretary Leavitt has made a personal investment and focus of energy on rebuilding of the Louisiana health care system supported by continuous technical expertise offered by CMS and senior officials throughout HHS</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,37 +528,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power companies planned ahead to upgrade or retire power plants and build new resources</t>
+          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+          <t>The Charlotte ordinance requires a carbon monoxide alarm in every dwelling unit in the county</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NIHtaxpayers paid for it and then smart Wall Street folks bought it and with the benefit of the patent they used that pricing power to overreach</t>
+          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,17 +568,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>We are occasionally reminded as we were on August 14th just how significant the loss of electricity can be to our economy and to our daily lives</t>
+          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>This outbreak prompted Congress to act with the Energy and Commerce Committee taking the lead in the House through a series of investigations and hearings on the issue</t>
+          <t>In addition I believe an amendment to the FPA to give the Commission authority to assess penalties in addition to refunds and interest could act as a powerful deterrent against the abuse of market power</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,57 +588,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
+          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>In some places including my own house the power took a couple of weeks to restore</t>
+          <t>You are quoting an unnamed energy publication</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Compliance with the Reliability Rules is required by the New York ISO and all entities engaged in transactions in the New York State Power System New York ISONYSRC Agreement Section 21</t>
+          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+          <t>Whether surface temperatures will increase due to radiativelyactive emissions is not clear</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+          <t>So it is not just the populationit is not just the people who have been on the oil rigs</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,17 +648,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>By way of background the Electricity Consumers Resource Council ELCON and the Electric Power Supply Association EPSA were part of the process that developed and endorsed the original consensus reliability language roughly seven years ago</t>
+          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
+          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,47 +668,47 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FERC grid operators State public utility commissions and power plants even progressive power companies are already planning for the changes that are under way</t>
+          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
+          <t>For natural gas the market is strong and active</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,17 +718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+          <t>US carbon trading is coming</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,57 +738,57 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
+          <t>Diesel trucks are paying 450 a gallon for diesel</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Chairman Bilirakis for holding this hearing today</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mr English you indicated that you are looking for an out was it 4 million megawatts is that what it was</t>
+          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
+          <t>The money basically comes from private investors in Kyoto party nations like in Europe who choose to get some of their emissions credits through the clean development mechanism by investing in countries like China or India or African countries or developing countries around the world</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I have served on the Budget Committee the past few terms as a representative of the Democrats on the Energy and Commerce Committee and we have seen those budgets</t>
+          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+          <t>Nuclear science and technologies take advantage of radiation and nuclear properties of the atom to perform many useful activities such as improving food safety protecting our homeland and providing for precise industrial production</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>In their wisdom the founders of our Nation gave Congress the constitutional power to protect the Intellectual Property of Authors and Inventors in order to promote the Progress of Science and the useful Arts</t>
+          <t>The Commission has been upheld in its interpretation of the Federal Power Act as excluding generation facilities per se from our direct authority</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,17 +828,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
+          <t>In the testimony we have submitted for the record we have outlined some of the concerns we have with the electricity situations in California and New York</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>As a general matter it is obvious and beyond reasoned argument that a Director of a federal agency has the official capacity and authority to exercise governmental power or influence which could have a favorable or unfavorable impact on the interests of a grantee of that agency particularly an entity with a continuous grantee and certification relationship with that federal agency</t>
+          <t>And the bulkpower system includes facilities and control systems necessary for operating an interconnected electric energy transmission network</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,87 +848,87 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>These include modernizing the electric grid by using proven technologies to better contain outages reduce recovery times and lower operating costs</t>
+          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>So the real question is what is the cost of the fuel</t>
+          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+          <t>This of course means that we will have to have an increase in nuclear waste and we need to safely store it</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>We regularly review our program to identify ways to improve it and in just the last 2 years we reduced the threshold for positive tests for testosterone greatly increased our use of highly sensitive carbon isotope ratio testing increased inseason random testing by 40 percent increased the penalty for repeat violators added many new substances to our prohibited list and tripled the number of times a player may be tested in the offseason</t>
+          <t>MERGERSCONVERGENCE MERGERS PUHCA restricts consolidations between electric and gas utilities operating in the same market again the SEC has been lax in enforcing this restriction</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
+          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
+          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>And does that make other forms of energy work better or does it replace them</t>
+          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
+          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+          <t>Energy prices soared and carbon pollution increased</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,67 +938,67 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Was there any concern at all except for getting opinions of like you said previous counsel to the Department of Energy or outside counsel that you were making precedent here or breaking precedent</t>
+          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>This requires vacation of camera regulations of both new and existing EGUs electric generation units</t>
+          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
+          <t>Mercury that ends up in fish may originate as emissions to the air</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>As a person who has actually developed interregional transmission projects I have taken the opportunity to write an article that is part of my prepared testimony that was just published in The Electricity Journal called Triple Jeopardy</t>
+          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
+          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,17 +1008,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
+          <t>However the US Congress does possess the power to overturn some of the most important barriers facing Distributed Generation today</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>And three accelerate the deployment of clean energy infrastructure</t>
+          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
+          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>These two projects represent the future of coal</t>
+          <t>You have already got your nose under the tent with the emissions part of the car</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
+          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,17 +1058,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+          <t>Now we have lowcost fuel</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Once a public health emergency has been declared MSEHPA allows authorities the power to seize private property for public use that is reasonable and necessary to respond to the public health emergency</t>
+          <t>We see Wisconsins electricity demand growing by almost 3 percent per year</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Electricity generated from coal is used in all 50 states</t>
+          <t>That is the entirety of all of our liabilities that include all of our nuclear ships and the eventual cleanup for those and a variety of other items</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+          <t>One of the projects that we delivered at the beginning of last year to San Diego Gas and Electric the speed at which the project was actually delivered to San Diego Gas and Electric was about 6 to 8 months</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,27 +1098,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>You noted at the outset of your tenure at the EPA that your goal was to refocus EPA on its intended mission return power to the states and create an environment where jobs can grow</t>
+          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+          <t>You noted at the outset of your tenure at the EPA that your goal was to refocus EPA on its intended mission return power to the states and create an environment where jobs can grow</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,17 +1128,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+          <t>In some places including my own house the power took a couple of weeks to restore</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The threat assessment also notes The greatest opportunities to limit the damage of covert NBC nuclear biological or chemical attacks or prevent them entirely exist during the first phases of the incident</t>
+          <t>Once a public health emergency has been declared MSEHPA allows authorities the power to seize private property for public use that is reasonable and necessary to respond to the public health emergency</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,57 +1148,57 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Thousands of different stakeholders participate in the US electricity system and many of these stakeholders have differing and competing desires for how wholesale electricity markets should be administered</t>
+          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+          <t>Did we find a market power abuse in California</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+          <t>OK Do pollution controls affect the power plants energy efficiency</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>I believe the Department of Energy actually flew a Saab into the US to get some testing done at Oak Ridge recently but there is technology available</t>
+          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+          <t>So therefore the regional power market does not see the price signal that RGGI is intended to deliver</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,17 +1228,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+          <t>We regularly review our program to identify ways to improve it and in just the last 2 years we reduced the threshold for positive tests for testosterone greatly increased our use of highly sensitive carbon isotope ratio testing increased inseason random testing by 40 percent increased the penalty for repeat violators added many new substances to our prohibited list and tripled the number of times a player may be tested in the offseason</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,17 +1248,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>As an example generally the typical electric cooperative in the United States has 7 customers per mile 7</t>
+          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,27 +1268,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>I appear this morning on behalf of the National Association of Convenience Stores NACS and the Society of Independent Gasoline Marketers of America SIGMA</t>
+          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>I will simply say in closing Mr Chairman that one instance of which I am particularly aware the Department of Defense has worked closely with a company in Orange County California which I represent Liquid Metal Technologies to develop an alternative weapon an alternative to depleted uranium emissions that have proven toxic if not severely toxic</t>
+          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+          <t>Good morning Chairman Upton Ranking Member Rush and all members of the Energy Subcommittee</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>My companys view and my personal perspective is that all fuel sources have something to offer and a diverse portfolio is key to a reliable electric grid</t>
+          <t>So to the extent the administration is supportive of incentives to increase these alternatives whether it be geothermal or solar or wind they can provide an extra cushion and certainly with a hydrosystem and wind projects allow us to store power as you know in the water and allow us to shape the power curve</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,37 +1308,37 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+          <t>These are just a few of the growing costs of carbon pollution</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Up to 4000 megawatts of capacity nationwide would be eligible</t>
+          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>One of the crazy things the FDA does not have subpoena power</t>
+          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>He is also board president of the Distributed Wind Energy Association and is testifying on behalf of the Distributed Wind Energy Association</t>
+          <t>And research shows that because prescription drugs are manufactured by reputable pharmaceutical companies they are prescribed by licensed clinicians they are dispensed by pharmacists they are perceived as safer to abuse than illegal drugs and we know that is not true and we know that young people arent buying them in a piece of tinfoil from behind a gas station</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,17 +1348,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+          <t>Two air pollution emissions were reduced</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Shifting gears I believe the Energy Star program is a nice complement to the mandatory federal energy efficiency standards for many energyusing products in that it helps consumers identify those models that go above and beyond the minimum standards</t>
+          <t>I believe the Department of Energy actually flew a Saab into the US to get some testing done at Oak Ridge recently but there is technology available</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
+          <t>The collateral effects from incomplete or poorly thought out policy changes could have a negative effect on all electricity users and certainly in regions of the country where there are no problems occurring</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,17 +1378,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,17 +1398,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>And while it is so exciting to have vehicles that are keyless and others that turn off and on for energy efficiency and others that will be plugged in this committees work is going to have to continue to make sure that we are doing the things we do to keep people safe</t>
+          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+          <t>It is somewhat more complex and if you are familiar with how DOE is organized Mr Stupak the vast majority of work at the Department of Energy including our nuclear weapons work our research laboratories Mr Stupak</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,17 +1418,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Thank you for holding todays hearing to provide us with a market participant perspective on our system of electricity regulation</t>
+          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
+          <t>It is about the lack of restraint and the pricing power that the pharma industry has that is resulting in immense heartache for families and you can create a lifeextending painrelieving drug</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,27 +1458,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
+          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>That was in my energy business</t>
+          <t>Yes we share a commitment with Canada to work towards energy security</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1488,27 +1488,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>I am a big trash energy guy</t>
+          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,17 +1518,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fortunately I understand that FERC operations have returned to near normal having cleared much of that backlog allowing the commission to turn its attention towards a host of issues ranging from controversial changes to the RTO capacity markets to how new energy infrastructure projects should be evaluated under FERCs certificate policy</t>
+          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+          <t>Now were focusing on climate tact and climate energy</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,17 +1538,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+          <t>He said in his oil statement and again just now that somehow companyan individual company would have to go out and assess the exposure not only to their use of the chemical but to everybody else on the market</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,37 +1558,37 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Some are reliably available 24 hours a day and seven days a week and ideal for baseload power while others are not</t>
+          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>We need metals for our legacy energy businesses our carbonbased businesses oil gas coal whatever</t>
+          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
+          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,17 +1598,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
+          <t>Congressman Latta I have also negotiated retransmission consent contracts and I would tell you that in the case of Suddenlink they were almost always successfully negotiated because we simply didnt have any power at the table to do anything other than accept the deal we were given</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Not only steel producers chemical plants or power plants are taking part in this trading also banks and insurances making this really a vivid trading place</t>
+          <t>NIHtaxpayers paid for it and then smart Wall Street folks bought it and with the benefit of the patent they used that pricing power to overreach</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,17 +1618,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Senator Dorgan you testified that after reviewing several recent studies on the impacts of LNG exports the Bipartisan Policy Center and Energy Board concluded that domestic gas prices are more likely to drive export levels than exports are likely to determine domestic prices</t>
+          <t>Additional material submitted for the record follows Knoxville Utilities Board and Memphis Light Gas Water DiVision INTRODUCTION AND SUMMARY Memphis Light Gas and Water Memphis and Knoxville Utilities Board Knoxville submit this statement for the record of the Committees hearings on electric industry restructuring issues to set forth their views on the need for legislation related to the Tennessee Valley Authority TVA</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>We depend on Polk to meet our customers energy needs</t>
+          <t>In their wisdom the founders of our Nation gave Congress the constitutional power to protect the Intellectual Property of Authors and Inventors in order to promote the Progress of Science and the useful Arts</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
+          <t>But you continue to hide evaporative emissions by even using tailpipe emissions in my opinion</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+          <t>And while it is so exciting to have vehicles that are keyless and others that turn off and on for energy efficiency and others that will be plugged in this committees work is going to have to continue to make sure that we are doing the things we do to keep people safe</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,17 +1658,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Would todays discussion draft make it easier for companies to install newer and cleaner equipment at existing facilities</t>
+          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+          <t>Second the National Nuclear Security Administrations direct Federal oversight was narrowly focused on specific performance measures called out in the contract rather than on overall effectiveness and the interface between different areas and I will say more about this in a moment</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,17 +1678,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>These are just a few of the growing costs of carbon pollution</t>
+          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+          <t>And I visited Oregon Techs oneofakind geothermal plant in August and saw firsthand how they are taking advantage of great renewable resources in the Klamath Basin</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Has the RFS reduced the need for foreign oil</t>
+          <t>Mr Blake we have noted that since the NES was adopted the National Energy Strategy that opened the wholesale markets in electricity the wholesale market has increased by 400 percent and prices have steadily declined in the wholesale market during that period of time</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
+          <t>Time of use metering is a similar application of technology which will better help electric customers understand when they use electricity the price consequences thereof and ways to save money</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>That is going to put pressure on conservation</t>
+          <t>This need not be limited to natural gas or other energy products</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>We can all agree that we do need some oil and gas development</t>
+          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,27 +1768,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>We all want safer and more fuel efficient cars</t>
+          <t>Economies are built on energy and materials</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Electricity generation demand is largely a function of weather heat in the west and cold in the east</t>
+          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+          <t>And does that make other forms of energy work better or does it replace them</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,27 +1798,27 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
+          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
+          <t>what is your electricity analyst view this concept of economic dispatch where the generation that is the most economic and the least cost to develop gets some sort of a priority to be used first before you go to the less economically which tends to be the older plants that have been in thebasically in the baseload for a number of years</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,27 +1838,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>So it is not just the populationit is not just the people who have been on the oil rigs</t>
+          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>There is a hearing downstairs on energy</t>
+          <t>That would be a market where large users of electricity can bid in to the market discontinuing using a certain amount of their load and get paid for it and make an economic decision as to whether they want to do that or not</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1868,37 +1868,37 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dana Berliners Public Power Private Gain is full of similar tales and Professor Jonathan Turley recently summarized more examples of takings that have been upheld by courts as legitimate public uses</t>
+          <t>But domestically it has both led to a tremendous renewal in manufacturing170 billion capital invested in just in the kind of the chemical arena and by the way also reducing carbon emissions</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+          <t>Congressman if you dont mind I think I will jump into this first and I would ask maybe to submit for the record the most recent comprehensive study conducted by the Department of Energys Argonne National Lab which looked at all of the energy balance studies that have been done over the past 10 and 15 years and concluded that without question ethanol has a positive energy balance</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>And I am a strong advocate again for allowing patients to learn how to take care of their own asthma and manage their disease because it is really all about putting the power in the hands of the patient and teaching them what they need</t>
+          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>For example low NOINFXINF burner technology developed through the program is now on 75 percent of US coal fired power plants</t>
+          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
+          <t>PSEG our company our company is already beginning to invest heavily in alternative energy</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,17 +1928,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Rush I think too you know in the future we would do well to include Ms Glover in future discussions because energy efficiency sometimes just kind of gets pushed to the side</t>
+          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>This one is from TXU Energy down in Texas</t>
+          <t>By themselves smallload or residential customers lack the power and resources to negotiate better deals banding together through aggregation programs local governments can wield purchasing clout on behalf of their residents for lower prices</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,67 +1948,67 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Moreover there is no reason to believe that such activities have had or will have any practical impact on the pursuit of nuclear weapons by proliferating states on the comprehensive diplomatic efforts ongoing to address these threats or on the possible modernization of nuclear weapons by China or Russia</t>
+          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mr Blake we have noted that since the NES was adopted the National Energy Strategy that opened the wholesale markets in electricity the wholesale market has increased by 400 percent and prices have steadily declined in the wholesale market during that period of time</t>
+          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>As you indicated my name is David Duquette and I chair the US Nuclear Waste Technical Review Board Executive Committee</t>
+          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Electric cooperatives comprise a unique component of the industry</t>
+          <t>A key responsibility of this Committee is to develop and ensure implementation of a Strategic Plan for disposition and consolidation of special nuclear material</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+          <t>Todays hearing is surfacing some concerns about the power platforms have to editorialize the things internet users read and say but at the same time the FCC is considering wholesale elimination of rules that prevent broadband providers from doing that</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Electrifying millions of American buildings will require sensors smart grid solar batteries carbon capture and storage the Internet of Things cloud computing mobile computing edge computing</t>
+          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+          <t>If they made use of the technology that the power industry was used to which was pointtopoint secured connections or in fact the same techniques that existed in the phone industry there wouldnt be an issue</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,27 +2018,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Still despite these initiatives California remains in danger of power outages when demand for electricity climbs this summer</t>
+          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+          <t>And the Federal Energy Regulatory Commission oversees many elements of the energy markets that this committee is familiar with including natural gas pipelines and electricity markets while the CFTC oversees natural gas and electricity futures</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Likewise when insurance companies are able to pull their market power to negotiate lower rates there can be positive results</t>
+          <t>The jurisdictional principal is the root principle of administrative power</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,27 +2058,27 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
+          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+          <t>These are good solid domestic jobs that get created with energy efficiency</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,27 +2098,27 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+          <t>Electric utilities also have a long history of providing mutual assistance and the same concept is being applied by the ESCC for mutual support in response to cyber incidents though challenges unique to cyber must be taken into account</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+          <t>Heating oil provides heat to only about 7 percent of the fuel consumed by residences on a national basis but the demand is not uniformly distributed the Northeast consumes the about 73 percent of all the heating oil used in the country</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
+          <t>Also the ability of utilities to provide affordable and reliable energy and power to people</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
+          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>This has to do with lowenriched uranium fuel</t>
+          <t>I want to ask you Mr Chairman and each of the Commissioners can you for the record as short of a guarantee state that the NRC is doing its absolute best to eliminate any and all known threats to nuclear safety in this Nation</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,17 +2158,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Electric utilities also have a long history of providing mutual assistance and the same concept is being applied by the ESCC for mutual support in response to cyber incidents though challenges unique to cyber must be taken into account</t>
+          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
+          <t>Mr Wood you had power</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Today we depend on these technologies for everything from social interaction to home security the operation of critical services like power plants and the electric grid</t>
+          <t>Is it an equivalent of a 1400megawatt power station that could have been available</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
+          <t>Accordingly I request that the Agency work with Congress particularly Chairman Shimkus Mr Welch and me as we try to develop interim and longterm solutions fuel solutions that are good for the environment and good for auto mileage good for the American consumers good for the agricultural and ethanol interest and really good for all impacted stakeholders</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,17 +2218,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
+          <t>Back in 2017 the FCC teed up the 24 gigahertz band in particular the appropriate protection limits in terms of the power emissions and the like for devices that would be using these bands for purposes of 5G</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,37 +2238,37 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+          <t>And so figuring out a mechanism to make sure we can do the work necessary to be able to fully use hydropower is critical</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
+          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>I am president and CEO of Southwest Power Pool an organization for which I have worked 32 years</t>
+          <t>In order to allow our power sector our engineering sector transportation sector manufacturing sector to do the job that I think in their heart instinctively they want to do we have got to give them the assurance that the timetables we establish have got to be such that they can keep pace with their responsibility to meet the needs of the citizens today and at the same time engage in the research and development of the solutions that we have but do it in a timely fashion</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A mere requestsomehow provide some assistance so they could be an existing power plant and have beenhave been rebuffed</t>
+          <t>Mr English you indicated that you are looking for an out was it 4 million megawatts is that what it was</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,57 +2288,57 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
+          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
+          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+          <t>PGE alone is in the process of relicensing more than 600 megawatts all before the year 2006</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Coalfired electricity is only cheap if one ignores the health and economic costs</t>
+          <t>Sincerely Richard A Abdoo Chairman of the Board President and Chief Executive OfficerAttachment Electric Generation Tax IncentivesSeven Year Cost Recovery With regard to depreciation the recovery periods permitted under current law for assets used to produce and distribute electricity are much longer than the recovery periods allowed for other capital intensive industries</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,27 +2348,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sincerely Richard A Abdoo Chairman of the Board President and Chief Executive OfficerAttachment Electric Generation Tax IncentivesSeven Year Cost Recovery With regard to depreciation the recovery periods permitted under current law for assets used to produce and distribute electricity are much longer than the recovery periods allowed for other capital intensive industries</t>
+          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Additional material submitted for the record follows Knoxville Utilities Board and Memphis Light Gas Water DiVision INTRODUCTION AND SUMMARY Memphis Light Gas and Water Memphis and Knoxville Utilities Board Knoxville submit this statement for the record of the Committees hearings on electric industry restructuring issues to set forth their views on the need for legislation related to the Tennessee Valley Authority TVA</t>
+          <t>Therefore new highvoltage transmission lines must be built in order to get electrical power to the stations</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+          <t>If we go out to the market to buy power from a new power plant it is at least 9 cents</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Back in 2017 the FCC teed up the 24 gigahertz band in particular the appropriate protection limits in terms of the power emissions and the like for devices that would be using these bands for purposes of 5G</t>
+          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+          <t>We in California introduced building standards and appliance standards and conservation programs for the utilities to beat the standards and we have kept electricity use constant per person for 30 years now even though everything is bigger and there are more loads and Gross Domestic Product per disposable income went up 80 percent we managed to keep electricity use constant with better refrigerators better air conditioners better buildings</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>That is something it seems to me the Energy and Commerce Committee and particularly this subcommittee should make a high priority</t>
+          <t>From telecommunications to fuel economy standards I have always found that starting with the goal of saving families money through technological innovation is the best vehicle for effective public policy</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,17 +2438,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>So this war on coal must stop</t>
+          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,27 +2468,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Energy Star is an example of something like that</t>
+          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+          <t>Dana Berliners Public Power Private Gain is full of similar tales and Professor Jonathan Turley recently summarized more examples of takings that have been upheld by courts as legitimate public uses</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,17 +2508,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,67 +2528,67 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>This should not be styled to effectively mandate ethanol use however</t>
+          <t>One of the crazy things the FDA does not have subpoena power</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+          <t>You know we have this theme about gaming the system and throughout Energy and Commerce has really been looking at this whole issue of drug pricing and trying to figure out why these prices are so high</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A special report of the Institutes oxygenates evaluation committee Cambridge MA Health Effects Institute April 1996 httpwwwhealtheffectsorgPubsoxysumhtm National Institute of Environmental Health Sciences 2002 MTBE in gasoline National Institute of Environmental Health Sciences March 13 2002 httpwwwniehsnihgovexternalfaqgashtm SUP13SUP Toccalino supra citing inter alia National Science and Technology Council 1996 Interagency assessment of potential health risks associated with oxygenated gasoline Washington DC National Science and Technology Council Committee on Environment and Natural Resources February 1996 httpwwwostpgovNSTChtmlMTBEmtbetophtml Office of Science and Technology Policy 1997 Interagency assessment of oxygenated fuels Washington DC Office of Science and Technology Policy National Science and Technology Council Executive Office of the President of the United States June 1997 264 p httpwwwepagovomsregsfuelsostpfinpdf U S Environmental Protection Agency 1997 Drinking water advisory Consumer acceptability advice and health effects analysis on methyl tertiarybutyl ether MTBE Washington DC U S Environmental Protection Agency Office of Water EPA822F97009 December 1997 48 p httpwwwepagovwatersciencedrinkingmtbepdf</t>
+          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+          <t>Last year the House included a provision in its energy bill requiring a Federal study into this boutique motor fuel issue</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
+          <t>All of the research that we have done points toward the need for a full portfolio generation options which includes the need for all forms of thermal generation including nuclear and coal</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>It is complete power</t>
+          <t>STATEMENT OF SUZANNE RUDZINSKI DIRECTOR OFFICE OF RESOURCE CONSERVATION AND RECOVERY OFFICE OF SOLID WASTE AND EMERGENCY RESPONSE ENVIRONMENTAL PROTECTION AGENCY Ms Rudzinski</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,17 +2608,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>In addition to being President and CEO of CONSOL Energy I want to tell you a little bit about Mr Harvey</t>
+          <t>So will it make electricity more or less expensive then</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,17 +2628,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+          <t>That is something it seems to me the Energy and Commerce Committee and particularly this subcommittee should make a high priority</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>I joined the Department of Energy back in 1978 and I joined the program in 1985</t>
+          <t>A customer with a basic meter gets no informational feedback on how and when they are using electricity or information they can apply to their future electricity purchases</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,57 +2648,57 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>You do have on the website a page and email address to accept public comments and requests regarding the Federal Power Act section 202 but I just want to make sure that they will be posted for the public to see</t>
+          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Dr Scheppach my Governor and Governor deJongh of the US Virgin Islands is an active member of NGA and has signed on to the policy statements on health care reform energy and many of the other ones</t>
+          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+          <t>Treatments like prescribed fire mechanical fuels reduction will not prevent wildfires from occurring but can influence how a wildfire burns</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Exporting oil just doesnt make any sense</t>
+          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,37 +2728,37 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+          <t>And at that time and today state regulators agree that users of electricity from nuclear power plants should pay for the Federal nuclear waste management and disposal program</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+          <t>The first major power plant was returned to service in just under an hour after that and a few minutes later we reestablished a transmission path to New York City</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
+          <t>These are carbon dioxide pipes</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
+          <t>The budget proposal also makes several misguided changes to the structure of the power marketing administrations PMAs</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+          <t>Nobody disagrees with the need for the additional power</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,27 +2778,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>I am determined to work with my colleagues to do everything in our power to preserve this important State right</t>
+          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Hes accompanied by Pat Hoffman Principal Deputy Assistant Secretary in the Office of Electricity who can provide technical perspective from her experience addressing cybersecurity and energy emergency functions</t>
+          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+          <t>No market participant in interstate wholesale electric markets should be immune from FERCs investigative and remedial authority</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+          <t>In our particular area if you think of wind turbines or solar panels or efficient gas turbines those rare Earth minerals are not actually a major component of our decision making in where to locate</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,87 +2818,87 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+          <t>I think we need to increase conservation and weatherization</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Whereas much of the risk in developing the traditional telephony networks was shouldered long ago in a market where the incumbents had monopoly power the development and deployment of broadband presents an enormous and immediate financial risk for firms</t>
+          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
+          <t>Exporting oil just doesnt make any sense</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+          <t>That is causing heating</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Chair recognizes the ranking member of the Energy and Commerce Committee the gentleman from Texas Mr Barton</t>
+          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+          <t>Compliance with the Reliability Rules is required by the New York ISO and all entities engaged in transactions in the New York State Power System New York ISONYSRC Agreement Section 21</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TESTIMONY OF THOMAS N PYKE JR CHIEF INFORMATION OFFICER US DEPARTMENT OF ENERGY Mr Pyke</t>
+          <t>This regulation will not only stifle innovation but inject uncertainty into the manufacturing sector while creating less energyefficient products and higher energy prices for consumers</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>They were the recipient of a promise by the Federal Government and the Department of Energy</t>
+          <t>So only the lobby and one exam room had electricity but they needed full electricity to meet the demands of their patients</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,27 +2938,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Such macroeconomic conditions generally present from the 1930s to the 1980s maintained low electricity rates and reliable service for end customers while strong predictable returns for investors</t>
+          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+          <t>When EPA announced plans to control benzene emissions from chemical production plants you know remember that industry claimed pollution controls would cost over 350000 per plant but instead technological innovation led to replacement of benzene with other chemicals and the compliance costs turned out to be zero</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+          <t>Contamination from industrial facilities pose a more troubling longterm concern with more than 40 oil spills recently reported in Louisiana by the Coast Guard and thousands of chemical containers spotted bubbling in the regions flood water</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>But we do have an oil crisis</t>
+          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A customer with a basic meter gets no informational feedback on how and when they are using electricity or information they can apply to their future electricity purchases</t>
+          <t>This requires vacation of camera regulations of both new and existing EGUs electric generation units</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Our objectives area to exercise and perform the powers and duties assigned to the IMO under this Act the market rules and its licenceb enter into agreements with transmitters giving the IMO authority to direct the operations of their transmission systemsc direct the operations and maintain the reliability of the IMO controlled gridd establish and operate the IMOadministered marketse collect and provide to the public information relating to the current and future electricity needs of Ontario and the capacity of the integrated power system to meet those needsf participate in the development by any standards authority of standards and criteria relating to the reliability of transmissions systems andg work with responsible authorities outside Ontario to coordinate the IMOs activities with their activities</t>
+          <t>Next to Ms Saunders is Mr Tim Richards who is the Managing Director of International Energy Policy for General Electric Company</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+          <t>Environmental concerns are extremely important because energy production and consumption involve major externalitiescosts that are not easily reflected in market transactions</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,17 +3018,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+          <t>This further diminishes their bargaining power because it is now an emergency</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,47 +3038,47 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+          <t>Electric Divestiture in California</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>We dont add carbon monoxide to make product look fresh beyond its code date</t>
+          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>How do we construct the buildings of the future that meet the demands and growing population while conserving our limited resources</t>
+          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+          <t>As the DOE continues to delay honoring its contracts with the utilities to remove spent nuclear fuel from plant sites both the amount of SNF and HLRW stored and the costs associated with storing it increase</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+          <t>Michael C Burgess Congress established the Corporate Average Fuel Economy program in 1975 to improve vehicle fuel economy reduce oil consumption and secure the Nations energy independence</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+          <t>It is the agency that makes sure your coffee maker does not burn down your house your baby does not die from a defective crib your power drill doesnt electrocute you your hot water heater does not poison you your childs toy is not made of lead et cetera and these are all real examples of defective products that have been recalled and they demonstrate the important role the Commission should play in protecting consumers</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,17 +3108,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>I havein the Energy Bill we talkedwe addressed some downwind provisions</t>
+          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+          <t>S 389 extends the existing credit and creates a second drilling window that also applies to heavy oil</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,17 +3128,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Today we will hear from the Federal Energy Regulatory Commission which is the coordinating agency for these reviews</t>
+          <t>I will make a comment from the perspective of energy efficiency</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>We recognize that the discussion draft instructs FDA to assess the costs benefits and feasibility of traceability technologies and gives FDA the power to exempt certain foods</t>
+          <t>STATEMENTS OF RODNEY MASNEY VICE PRESIDENT TECHNOLOGY SERVICE DELIVERY INFORMATION TECHNOLOGY OWENSILLINOIS THOMAS D BIANCULLI CHIEF TECHNOLOGY OFFICER ZEBRA TECHNOLOGIES CORPORATION DR THOMAS R KURFESS PROFESSOR AND CHAIR IN FLUID POWER AND MOTION CONTROL GEORGE W WOODRUFF SCHOOL OF MECHANICAL ENGINEERING GEORGIA INSTITUTE OF TECHNOLOGY SANJAY POONEN CHIEF OPERATING OFFICER VMWARE STATEMENT OF MR MASNEY Mr Masney</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>The Agency views the issue of electronics recycling as one of resource conservation and solid waste management and so do CEA and its members</t>
+          <t>However it is crucial that there is parity among incentives such that they can be enjoyed by public power and investor owned utilities alike</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+          <t>Although the accident ultimately caused two fatalities and the demolition of the area within the facility the most catastrophic consequence the release of almost 7 tons of MIC gas did not occur</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,27 +3168,27 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Since 2007 California regulators have permitted the use of public safety power shutoffs by electric utilities to prevent the ignition of wildfires during highwind events</t>
+          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>NIH isthe thing the NIH does the best is research and they have spent a lot of time and energy in not only developing new vaccines</t>
+          <t>You guys are the guys who can make this happen because of your connection with mostlyyou have some friends over on my side but you have a lot of friends on the Democrat side and they are in charge and so I would plead with you and the other folks who are looking for expansion of energy opportunities the operating engineers the electricians that they hold out for a good bill that they are not going to lose their jobs</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>But Cellular South which is our homeowned cellular company and BellSouth which is our biggest provider and also is a partner in Cingular again their people have worked untold hours just like the electric utility people and made huge sacrifices</t>
+          <t>Hes accompanied by Pat Hoffman Principal Deputy Assistant Secretary in the Office of Electricity who can provide technical perspective from her experience addressing cybersecurity and energy emergency functions</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,17 +3208,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>As Chairman Shimkus stated the 21st Century Transportation Fuel Act Discussion Draft takes a larger view of Federal transportation fuel policies</t>
+          <t>The United States has such incredible energy abundance</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
+          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3238,27 +3238,27 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
+          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,17 +3268,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Of course when Katrina did hit it did substantially more damage to the energy infrastructure than the futures market had anticipated and prices increased further</t>
+          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
+          <t>At what time did your company first become aware that the system was experiencing unscheduled unplanned or uncontrollable power flows or other abnormal conditions and what steps did you take to address the problem</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3288,17 +3288,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>One of every eight people gets their electricity from a rural electric cooperative nationwide</t>
+          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,17 +3308,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>But in fact I think it has worked out very well in the electric sector in the sense that we have utilities all other extensions above power systems or at least meeting minimum standards and we saw a good example with Texas this past winter</t>
+          <t>The Chairman of the Council on Environmental Quality chairs the Interagency Task Force whose membership includes representatives from the Departments of Agriculture Commerce Defense Energy the Interior and Transportation the Environmental Protection Agency the Federal Regulatory Commission and the Advisory Council on Historic Preservation</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+          <t>Each day more exploration and development activity in the Gulf is lost</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3348,27 +3348,27 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>I would want the knowledge and education that allowed me to navigate the system and make my own appropriate decisions for myself and my children and I would want the power to determine my own fate and the power to change the situation</t>
+          <t>And three accelerate the deployment of clean energy infrastructure</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,47 +3378,47 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>I thank you and the Chair of the full committee for your leadership on the American Clean Energy and Security Act</t>
+          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
+          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
+          <t>Pike is a participating member of a group called the Center for Energy Workforce Development</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,17 +3428,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Public power also sells any excess power when available in the wholesale market</t>
+          <t>If we ask any energy trader they will tell you that is the first thing that they look at</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
+          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,17 +3448,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Central to energy access is lighting for example</t>
+          <t>The C2P2 encourages generators and users of coal combustion products to increase the use of coal ash in cement and other construction products</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
+          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>But I think when I go back and reflect on the hearings as many witnesses have stated the Federal Power Act and the competitive market model have served the nation well and would urge everybody to keep that in mind as we debate some of these other issues</t>
+          <t>FERC grid operators State public utility commissions and power plants even progressive power companies are already planning for the changes that are under way</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>It can also help ensure that our communities are more resilient to the impacts of climate change as you know well in your State from power outages to flooding and storm surges</t>
+          <t>There is a hearing downstairs on energy</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,17 +3498,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>The Clean Power Plan as proposed will call that into question</t>
+          <t>Comprehensive Review and Recommendations Pursuant to Section 603 of the Energy Act of 2000</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
+          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
+          <t>NEPOOLs old financial assurance policies allowed the organization to rescind membership in the Pool but did not allow NEPOOL to cut off a company from trading in the energy markets in response to a situation like that posed by Enron</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,17 +3528,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>But just kind of bottom line we know that for every fullservice hotel like a Marriott we send millions of dollars of buying power back into local communities through the salaries and supply chain</t>
+          <t>The first provided an overview of the future of fuels and vehicles</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>I look forward to todays hearing to examine the challenges and opportunities to modernize our electric grid</t>
+          <t>Would todays discussion draft make it easier for companies to install newer and cleaner equipment at existing facilities</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3548,27 +3548,27 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>The energy markets of Canada Mexico and the US are becoming increasingly interdependent thanks in large part to the free trade status of energy commodities</t>
+          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
+          <t>Most of all I am very concerned what this proposed rule would do to electricity costs for consumers and for jobcreating businesses</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,37 +3588,37 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>We have Mr Adam Sieminski Chief Energy Economist Deutsche Bank</t>
+          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
+          <t>If not I would ask unanimous consent that wewhen we reconvene at 1030 that opening statementsthe only opening statements we will have will come from the chairman the ranking member of the full committee the chairman and the ranking member of the Energy and Environment Subcommittee</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>We are partnering with Columbus Power on many many ranges for smart grid and we are also looking at just the charging infrastructure in general</t>
+          <t>The NPCC system appears to have remained stable during this initial power surge</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,27 +3638,27 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Mr Danly am I correct that under PURPA qualified facilities must have a capacity less than 80 megawatts</t>
+          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>We have also engaged the Department of Interior the Department of Energy the National Laboratories and the Department of Defense in discussions related to security</t>
+          <t>This bipartisan effort underscores one of the key goals of the Energy and Commerce Committee helping American entrepreneurs and established businesses expand to create jobs for American workers and help improve the lives of consumers</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+          <t>So here is this switch that when it is in one position for an emissions test it made a change in how this was operational so the emissions would be lower</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,27 +3688,27 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+          <t>Could we talk for just a minute about the energy policy that is being followed by this administration</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>The prepared statement of Glenn English follows Glenn English Chief Executive Officer National Rural Electric Cooperative Association INTRODUCTION Chairman Barton and Members of the Subcommittee I appreciate this opportunity to continue our dialogue on the restructuring of the electric utility industry</t>
+          <t>Electric reliability and environmental protection are both important to this countrys future</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+          <t>It took over a year in production and it analyzed all of the various means open to us in terms of investing in energy efficiency technologies</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,17 +3718,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>She says As a result of shortsighted energy policies poor longterm planning and extensive rolling blackouts in 2020 CAISO petitioned FERC to make changes to its tariff related to transmission priority through California</t>
+          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Public power systems throughout the United States have seen direct economic benefits from deploying broadband networks</t>
+          <t>We recognize that the discussion draft instructs FDA to assess the costs benefits and feasibility of traceability technologies and gives FDA the power to exempt certain foods</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,17 +3738,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+          <t>What is the retail cost of your constituents for electricity in Washington</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
+          <t>It would affect ethanol prices to some extent</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>And what is the US consumption of gasoline per day</t>
+          <t>When that merging occurs will we on the Energy and Commerce Committee be made aware of what that structure looks like and how the fund then subsequently is to be administered</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,27 +3768,27 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
+          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>The partners are Southern Company subsidiary Georgia Power the Municipal Electric Authority of Georgia MEAG Power the Georgia Transmission Corporationa cooperative utilityand Dalton utilitiesa municipal system</t>
+          <t>I think the natural markets that have formed that have some reasonable transmission capability within that region so you can move significant amounts of power within that region is a good start</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,17 +3798,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>If not I would ask unanimous consent that wewhen we reconvene at 1030 that opening statementsthe only opening statements we will have will come from the chairman the ranking member of the full committee the chairman and the ranking member of the Energy and Environment Subcommittee</t>
+          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+          <t>Since the drafts release the Environmental Protection Agency has issued a finding that greenhouse gas emissions pose a threat to public health and welfare</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,17 +3838,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+          <t>Dynegy owns or controls approximately 14000 megawatts of generating capacity in the United States of which 2750 is in California</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
+          <t>Likewise when insurance companies are able to pull their market power to negotiate lower rates there can be positive results</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Everyone in Washington is interested in renewables</t>
+          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Also given the responsibility that has been given to the NERC to ensure the reliability of the bulk power system in North America would NERC consider it sufficient to look at the impact of regulations one by one instead of in a cumulative analysis</t>
+          <t>Unchanged if these power plants shut down</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,17 +3898,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
+          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,17 +3918,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>More importantly the draft language does not currently include language that would substantially thwart the Federal Energy Regulatory Commissions FERC current efforts for continued industry restructuring</t>
+          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+          <t>A special report of the Institutes oxygenates evaluation committee Cambridge MA Health Effects Institute April 1996 httpwwwhealtheffectsorgPubsoxysumhtm National Institute of Environmental Health Sciences 2002 MTBE in gasoline National Institute of Environmental Health Sciences March 13 2002 httpwwwniehsnihgovexternalfaqgashtm SUP13SUP Toccalino supra citing inter alia National Science and Technology Council 1996 Interagency assessment of potential health risks associated with oxygenated gasoline Washington DC National Science and Technology Council Committee on Environment and Natural Resources February 1996 httpwwwostpgovNSTChtmlMTBEmtbetophtml Office of Science and Technology Policy 1997 Interagency assessment of oxygenated fuels Washington DC Office of Science and Technology Policy National Science and Technology Council Executive Office of the President of the United States June 1997 264 p httpwwwepagovomsregsfuelsostpfinpdf U S Environmental Protection Agency 1997 Drinking water advisory Consumer acceptability advice and health effects analysis on methyl tertiarybutyl ether MTBE Washington DC U S Environmental Protection Agency Office of Water EPA822F97009 December 1997 48 p httpwwwepagovwatersciencedrinkingmtbepdf</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,17 +3958,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,17 +3988,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+          <t>So 2 years and you dont have the records from 2007 and yet you continue to say you dont need subpoena power</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>No one has the authority to look at the big picture of how hydro fits into our national energy policy</t>
+          <t>The threat assessment also notes The greatest opportunities to limit the damage of covert NBC nuclear biological or chemical attacks or prevent them entirely exist during the first phases of the incident</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,17 +4008,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>My personal opinion based on what happened about that history as well as what happened with privatized spent fuel storage was that you could have a willing host community</t>
+          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,17 +4028,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
+          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,17 +4048,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+          <t>And subsequently the utility which was buying the energy for the consumers in primarily the spot market didnt know what had been going on subsequently said they had been buying from only 2 or 3 sellers at times and locations in the city</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4068,17 +4068,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+          <t>I reckon 1969 but we were without power and we are about 120 miles from the coast and we were without power about 20 days 19 20 days and at that time some of the water systems had started putting in generators very few but some had and you know welike I said in the testimony you can make it without power for a while rig up your generator to get the TV on or something but without water you cant make it and we immediately called our circuit riders</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+          <t>We have partnerships throughout the United States and with universities with national labs with all kinds of differentand other companies as well looking at everything from hydrogen to of course batteries and electrification of the vehicles and what is happening with compact natural gas and everything else</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,17 +4108,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>These are good solid domestic jobs that get created with energy efficiency</t>
+          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,17 +4128,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
+          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,37 +4148,37 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>I am privileged to chair the Subcommittee on Commerce Trade and Consumer Protection and my friend and colleague Mr Boucher who is the chairman of the Communications Technology and Internet Subcommittee of the Committee on Energy and Commerce</t>
+          <t>This has to do with lowenriched uranium fuel</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,27 +4188,27 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+          <t>Up to 4000 megawatts of capacity nationwide would be eligible</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,17 +4218,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>As Ohioans discuss this issue across the state we hear one overriding concern maintaining our affordable reliable power is critical to both the pocketbooks of Ohioans and continued economic development within our state</t>
+          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+          <t>But I worry that you will labor mightily and give forth with a capandtrade that will produce a carbon price that is too low to affect physical change</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>In addition I believe an amendment to the FPA to give the Commission authority to assess penalties in addition to refunds and interest could act as a powerful deterrent against the abuse of market power</t>
+          <t>I have served on the Budget Committee the past few terms as a representative of the Democrats on the Energy and Commerce Committee and we have seen those budgets</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+          <t>Well we have already issued a New Source Performance Standard that captures the volatile organic compounds in the emissions from unconventional gas when hydrofracking happens</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,37 +4258,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>We need to modernize the electric grid so that it can handle the charging even in extreme weather conditions</t>
+          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>I want to thank all the witnesses for being here and look forward to hearing your testimony as this committee evaluates the state of our wholesale electricity markets and I yield back</t>
+          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
+          <t>Shifting gears I believe the Energy Star program is a nice complement to the mandatory federal energy efficiency standards for many energyusing products in that it helps consumers identify those models that go above and beyond the minimum standards</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+          <t>The Commission has jurisdiction over sales for resale of electric energy and transmission service provided by public utilities in interstate commerce</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+          <t>So the real question is what is the cost of the fuel</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,17 +4308,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>I hope this doesnt echo across the Administration and the great folks of the Department of Energy and the Congress</t>
+          <t>The recent crisis in California generated great uncertainty in our nations electricity markets and brought to the forefront serious deficiencies in Americas system of electricity transmission generation and distribution</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,17 +4338,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,17 +4358,17 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
+          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,37 +4388,37 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Certainly methane capture from landfills is fairly easy to measure</t>
+          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+          <t>In another example we believe US EPA has misapplied the economic feasibility analysis to predict the reliability on the bulk power system</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>And I see no way that energy costs are going down</t>
+          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
+          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,20 +4428,4020 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+          <t>The National Academy of Sciences has referred to the US electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous affordable and dependable manner</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
+          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Secondly the other consistent thing in that report as I stated earlier is the natural gas impact is having on the marketplace in general in terms of retiring old inefficient plants</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>State regulators do not care if power plants get built only that the standards are followed</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Not only steel producers chemical plants or power plants are taking part in this trading also banks and insurances making this really a vivid trading place</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Second I do think that green coal and carbon sequestration is the most important single breakthrough we could make because the objective fact is China is adding one coalburning plant a week</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Power supplies had been disabled</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>OK well it will also have to replace fossil fuel energy generation in addition</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>The goals are to reduce foreign oil imports and improve air qualitynot subsidize American industry</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>The Xcel and Mirant traders discussed schemes to schedule nonexistent power use and to take advantage of congestion payments on Californias overburdened electric grid</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Canada is already the largest supplier of energy to the United States meeting 12 percent of current US petroleum consumption needs and 18 percent of US petroleum imports</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>I joined the Department of Energy back in 1978 and I joined the program in 1985</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Also given the responsibility that has been given to the NERC to ensure the reliability of the bulk power system in North America would NERC consider it sufficient to look at the impact of regulations one by one instead of in a cumulative analysis</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Thank you for holding todays hearing to provide us with a market participant perspective on our system of electricity regulation</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Then the President issued two executive orders intended to increase energy production</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Today we depend on these technologies for everything from social interaction to home security the operation of critical services like power plants and the electric grid</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>We have a great record in the Northwest on saving energy through conservation</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Thousands of different stakeholders participate in the US electricity system and many of these stakeholders have differing and competing desires for how wholesale electricity markets should be administered</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>But Cellular South which is our homeowned cellular company and BellSouth which is our biggest provider and also is a partner in Cingular again their people have worked untold hours just like the electric utility people and made huge sacrifices</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Likewise in Puerto Rico Hurricanes Irma and Maria uncovered the intensified issues associated with aging and inefficient energy infrastructure contaminated sites that are rapidly multiplying landfills that are already overflowing and possibly the most contaminated drinking water supply in the United States</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>That is going to put pressure on conservation</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>I would want the knowledge and education that allowed me to navigate the system and make my own appropriate decisions for myself and my children and I would want the power to determine my own fate and the power to change the situation</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>For the first time in six decades the United States is a net natural gas exporter</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>We have also engaged the Department of Interior the Department of Energy the National Laboratories and the Department of Defense in discussions related to security</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>The Bipartisan Policy Centers June 2011 analysis of the rules also found that scenarios in which electric system reliability is broadly affected are unlikely to occur</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Instead as the threat from climate change becomes more and more dire and the scientific consensus of the threat becomes even clearer we are having another hearing focused on the alleged war on coal</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>And as a municipal utility CPS Energy belongs to a class of utilities termed public power utilities</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>The exemption recognizes that manufacturing companies are not in the business of generating and selling power and are not creating market problems</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>There were no septic systems no water systems and they ended up drilling their own wells and they become really a problem</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Mr Danly am I correct that under PURPA qualified facilities must have a capacity less than 80 megawatts</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>He is also board president of the Distributed Wind Energy Association and is testifying on behalf of the Distributed Wind Energy Association</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>There is clearly a need for a speedier more efficient process for siting approval especially as siting decisions in one state can affect the operation of the electric grid in several other statesas should be apparent from the events of August 14th</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Rush I think too you know in the future we would do well to include Ms Glover in future discussions because energy efficiency sometimes just kind of gets pushed to the side</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>They have plenty of power already and influence as they demonstrated by instructing the Republican caucus to go pass this tax bill</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>We all want safer and more fuel efficient cars</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Have you analyzed how expected and observed climate changes will affect natural gas price fluctuations</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>I am president and CEO of Southwest Power Pool an organization for which I have worked 32 years</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Mr Chairman and members of the subcommittee the agreement that we are announcing today on multiple appliances seeks to legislate new appliance efficiency standards for several covered products recommends to DOE and EPA that they adopt new strict Energy Star specifications for these products and seeks to extend the manufacturers tax credit for super efficient appliances to more products</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>And in order to accommodate the greatest diversity of witnesses as well as use the time we have in the most efficient way considering both of the activities on the House floor and HouseSenate conferences on the energy and the highway bills we are going to bifurcate this hearing</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>OK Andso just why is it important to examine that bulk power system reliability through the lens of recent extreme weather events and not just the Texas power failure</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>I am determined to work with my colleagues to do everything in our power to preserve this important State right</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Still despite these initiatives California remains in danger of power outages when demand for electricity climbs this summer</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>And we also operate the Nations most active LNG important terminal at Cove Point Maryland</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Electricity generated from coal is used in all 50 states</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>And you know if we look at emissions they really have to be looked at on a global scale</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>that material out to do exactly what Canada is doing to do exactly what needs to happen on the FremontWinema National Forests where you have more than 200000 acres of federal forestland that is exactly that way buginfested lodge pole pine when that material comes out why in the Devil do we say it is not renewable and cant be turned into pucks like this to help reduce carbon from coal</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>And if we focused our time energy finances resources on helping the entire world and not just the United States we would be moving you know to the future a little faster</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>The commissions inability to come together on a unified response during the height of the Western energy crisis in 2000 caused consumers to pay significantly more for electricity and natural gas than they should have</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>A sustained period of upward pressure on electricity prices has negative implications for US economic growth and the competitiveness of American industry in a global marketplace</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>But before March 1979 was the last instance where the NRC received an application for a new nuclear power generation plant</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>We are partnering with Columbus Power on many many ranges for smart grid and we are also looking at just the charging infrastructure in general</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>I look forward to the testimony and to identifying what may be possible to do while preserving the essential roles of heavyduty engine power in our economy and way of life</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>A mere requestsomehow provide some assistance so they could be an existing power plant and have beenhave been rebuffed</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Electric cooperatives comprise a unique component of the industry</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Long Islands power generation costs are generally higher that those in Connecticut</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>In any event we recognize that projections of energy markets are highly uncertain and are subject to many random events that cannot be foreseen</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>In approving our report Secretary Abraham said The management of the nuclear weapons complex is my most important responsibility as Secretary of Energy</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>In that same hearing Ms Angielski we heard testimony that fossil energy will remain a major part of the energy mix in growing nations like India Vietnam Colombia South Africa because the sources are domestic abundant and affordable</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>The Federal Power Act requires FERC to balance those competing interests in issuing a license because no one use of a river for power drinking water irrigation recreation or other use should automatically take precedence</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>He joined the Texas Railroad Commission which is a major entity that governs energy and oil and gas and he is elected by his colleagues as Chairman of the Agency in September</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>I will simply say in closing Mr Chairman that one instance of which I am particularly aware the Department of Defense has worked closely with a company in Orange County California which I represent Liquid Metal Technologies to develop an alternative weapon an alternative to depleted uranium emissions that have proven toxic if not severely toxic</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>The Maryland Energy Assistance Program which distributes LIHEAP funds locally is expected to receive 32 million from the Federal Government</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Energy Star is an example of something like that</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Commissioner Rosenworcel again what should the FCC be doing going forward to make sure the cell towers dont go down during power outages</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Everyone in Washington is interested in renewables</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>So now that youre on the job I wanted to ask you specifically do you believe that greenhouse gas emissions endanger the public health</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>And you need to understand how they function and just going in and building a tighter envelopethis happened when I was a code official back in the early 90s is the energy code started requiring tighter construction</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>You do have on the website a page and email address to accept public comments and requests regarding the Federal Power Act section 202 but I just want to make sure that they will be posted for the public to see</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Dr Scheppach my Governor and Governor deJongh of the US Virgin Islands is an active member of NGA and has signed on to the policy statements on health care reform energy and many of the other ones</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>East of the Mississippi most natural resource lands most historic lands are privatelyowned but protected through publicprivate partnerships whether it is the designation of historic districts or the donation of conservation and historic easements</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Between 1990 and 2000 the State of California added 2670 megawatts of new capacity</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>And I guess it is a fine line between market uncertainty and price gouging in many of our minds because people price gouge because consumers are uncertain and they know gas costs are rising correct</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>The proposal would require all generators public utilities and power marketers to file electronically with the Commission and post on the Internet an index of customers with a summary of the contractual terms and conditions for marketbased power sales costbased power sales and transmission service</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Whereas much of the risk in developing the traditional telephony networks was shouldered long ago in a market where the incumbents had monopoly power the development and deployment of broadband presents an enormous and immediate financial risk for firms</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Over twenty workshops were held around the country involving academics businesspeople representing a range of industries including manufacturing power generation and tourism and people who work closely with land and water ecosystems including resource managers ranchers farmers foresters and fishermen</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Chair recognizes the ranking member of the Energy and Commerce Committee the gentleman from Texas Mr Barton</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>President The Association of American Medical Colleges The Association of American Medical Colleges AAMC is pleased to submit for the record testimony to the House Energy and Commerce Subcommittee on Health on the need to replace the Sustainable Growth Rate SGR methodology used to calculate the update for Medicare payments under the Physician Fee Schedule physician payment update</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>We have Mr Adam Sieminski Chief Energy Economist Deutsche Bank</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>As a consequence of the RFS we are now just 45 percent dependent on foreign oil for our liquid transportation fuels</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>It has helped integrate renewables online</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>There is an analysis that is going to be released in the coming weeks by the National Commission on Energy Policy</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>TESTIMONY OF THOMAS N PYKE JR CHIEF INFORMATION OFFICER US DEPARTMENT OF ENERGY Mr Pyke</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Electrifying millions of American buildings will require sensors smart grid solar batteries carbon capture and storage the Internet of Things cloud computing mobile computing edge computing</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Such macroeconomic conditions generally present from the 1930s to the 1980s maintained low electricity rates and reliable service for end customers while strong predictable returns for investors</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>In this case those factors are the consequences of a strike in Venezuela that crippled that countrys export capability for months weather much colder than normal in parts of the country where energy use is extremely sensitive to temperature and uncertainty over crude oil supply in the immediate future due to the international situation involving Iraq</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>But we do have an oil crisis</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Our objectives area to exercise and perform the powers and duties assigned to the IMO under this Act the market rules and its licenceb enter into agreements with transmitters giving the IMO authority to direct the operations of their transmission systemsc direct the operations and maintain the reliability of the IMO controlled gridd establish and operate the IMOadministered marketse collect and provide to the public information relating to the current and future electricity needs of Ontario and the capacity of the integrated power system to meet those needsf participate in the development by any standards authority of standards and criteria relating to the reliability of transmissions systems andg work with responsible authorities outside Ontario to coordinate the IMOs activities with their activities</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>In addition ethanol cannot be carried in the nations pipeline system and must be segregated from the wholesale distribution system until its addition at the truck rack</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>The missiles with the nuclear warheads were not reported missing and remained mounted to the aircraft at both Minot and Barksdale for 36 hours</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Sometimes we will give them energy sometimes they will give us energy</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>I havein the Energy Bill we talkedwe addressed some downwind provisions</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Today we will hear from the Federal Energy Regulatory Commission which is the coordinating agency for these reviews</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>These types of facilitiesexempt wholesale generators or EWGsare not considered to be electric utility companies under PUHCA and in fact are exempt from all provisions of PUHCA</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>DOEs newly created Office of Cybersecurity Energy Security and Emergency Response leads these efforts</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Since 2007 California regulators have permitted the use of public safety power shutoffs by electric utilities to prevent the ignition of wildfires during highwind events</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>NIH isthe thing the NIH does the best is research and they have spent a lot of time and energy in not only developing new vaccines</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>But in fact I think it has worked out very well in the electric sector in the sense that we have utilities all other extensions above power systems or at least meeting minimum standards and we saw a good example with Texas this past winter</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>As Chairman Shimkus stated the 21st Century Transportation Fuel Act Discussion Draft takes a larger view of Federal transportation fuel policies</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>This work to better organize the healthcare market into highvalue networks is necessary and desirable and we would urge that folks make a differentiation between consolidation to create excessive market power and integration of providers in the market to create a highvalue network</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Municipal utilities in my Tennessee district saw the cost of natural gas soar to near 10 per million Btus on the spot market over the winter</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>I thank you and the Chair of the full committee for your leadership on the American Clean Energy and Security Act</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>We dont add carbon monoxide to make product look fresh beyond its code date</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>We need to modernize the electric grid so that it can handle the charging even in extreme weather conditions</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Of course when Katrina did hit it did substantially more damage to the energy infrastructure than the futures market had anticipated and prices increased further</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>It was just sucking the power through the grid and had that shut that plant down it would have gone right around the horn over to Chicago</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>He has added substantially to the states ability to deal with our current energy situation</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>By definition costeffective conservation is less costly than any other energy resource and conservation reduces consumers bills</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>First to Secretary Moniz I appreciate your hard work at DOE and especially the comprehensive Quadrennial Energy Review reports which we would always mention</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>The Johnson Johnson 7 Minute Wellness for Expecting and New Moms App is a sciencebased wellness resource designed to help new moms manage and expand their energy during pregnancy and after giving birth</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>And we are not alone electric utilities in the Northeast and the Southeast have also spent countless hours and invested millions of dollars in efforts to form their own RTOs</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>I appear this morning on behalf of the National Association of Convenience Stores NACS and the Society of Independent Gasoline Marketers of America SIGMA</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Once there is a truly competitive retail market and QFs can buy backup power in the open market then and only then will the backup power guarantee no longer be essential to existing and future CHP power generators</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>The prepared statement of Stephen E Ewing follows Stephen E Ewing President Chief Operating Officer DTE Energy Gas on Behalf of the American Gas Association Thank you for the opportunity to testify before this Committee on behalf of the American Gas Association and the 56 million consumers served by its members</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Central to energy access is lighting for example</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Has the RFS reduced the need for foreign oil</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>We have a very favorable climate for construction approval siting of new power plants new generating facilities</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>But I think when I go back and reflect on the hearings as many witnesses have stated the Federal Power Act and the competitive market model have served the nation well and would urge everybody to keep that in mind as we debate some of these other issues</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>It can also help ensure that our communities are more resilient to the impacts of climate change as you know well in your State from power outages to flooding and storm surges</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>We will invest in medical research and clean energy technology</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>I look forward to todays hearing to examine the challenges and opportunities to modernize our electric grid</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Does anybody believe that the coal industry should have the right to put unlimited amounts of carbon dioxide at zero cost into the atmosphere</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>These individuals in turn will become the qualified skilled workforce that the energy and manufacturing industries need</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Well from a fire science perspective you always have to remember you have to have drying of the fuels to a point where they can be ignited and sustain ignition and you have to have ignition</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Ultimately Congressman if the Department of Homeland Security felt that the Nuclear Regulatory Commission hadnt moved either quickly enough or effectively enough visavis the threat you are talking about one would hope that the new Cabinet Secretary in conjunction with the chairman of the Nuclear Regulatory Commission can resolve that</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>This subcommittee this subcommittee should work together to prioritize the reliability of our power sector</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Forcing fuel switching from coal to natural gas is a tool of compliance by contrast maximizes the costs of compliance</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Resource agencies responsible for the health of fisheries have only one chance every 30 to 50 years to affect how private hydropower projects are operated</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>As a result of this proposal the power rates in many areas in Arkansas that have not benefited from the economic recovery would increase</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>She says As a result of shortsighted energy policies poor longterm planning and extensive rolling blackouts in 2020 CAISO petitioned FERC to make changes to its tariff related to transmission priority through California</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Public power systems throughout the United States have seen direct economic benefits from deploying broadband networks</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Mr Shimkus asked earlier whether climate legislation would raise gasoline and electricity prices</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>And what is the US consumption of gasoline per day</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>And so a lot of our research focuses on advanced technologies energy storage capabilities advanced minigrids or microgrids as they are called</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Soand the other thing I would add is that they are not clean or completely fossilfuel free the way that renewables are</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>The Agency views the issue of electronics recycling as one of resource conservation and solid waste management and so do CEA and its members</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>As you indicated my name is David Duquette and I chair the US Nuclear Waste Technical Review Board Executive Committee</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>That invisible oil slick is now causing the oceans to become acidic</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>The prepared statement of Jerry Jordan follows Jerry Jordan on Behalf of the Independent Petroleum Association of America and the National Stripper Well Association 1 1 Colorado Oil Gas Association East Texas Producers Royalty Owners Association Eastern Kansas Oil Gas Association Florida Independent Petroleum Association Illinois Oil Gas Association Independent Oil Gas Association of New York Independent Oil Gas Association of Pennsylvania Independent Oil Gas Association of West Virginia Independent Oil Producers Association TriState Independent Petroleum Association of Mountain States Independent Petroleum Association of New Mexico Indiana Oil Gas Association Kansas Independent Oil Gas Association Kentucky Oil Gas Association Louisiana Independent Oil Gas Association Michigan Oil Gas Association Mississippi Independent Producers Royalty Association Montana Oil Gas Association National Association of Royalty Owners Nebraska Independent Oil Gas Association New Mexico Oil Gas Association New York State Oil Producers Association Ohio Oil Gas Association Oklahoma Independent Petroleum Association Panhandle Producers Royalty Owners Association Pennsylvania Oil Gas Association Permian Basin Petroleum Association Tennessee Oil Gas Association Texas Alliance of Energy Producers Texas Independent Producers and Royalty Owners and Wyoming Independent Producers Association</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Could you explain why the FTC thinks it is necessary to have the power to determine the possibility of adverse results without first consulting with the appropriate judge and presenting and seeking such latitude as you are asking for</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Again less American jobs more dependence on foreign oil</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>More importantly the draft language does not currently include language that would substantially thwart the Federal Energy Regulatory Commissions FERC current efforts for continued industry restructuring</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>You would be a real hero if you could get us the energy bill</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>1 To ensure a common basis for comparison the capital costs of electric generating technologies are expressed in dollars per kilowatt of capacity</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>I am the Manager of the Yazoo City Public Service Commission the local electric utility serving Yazoo City Mississippi I am also a member of the APPA Board of Directors</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>No one has the authority to look at the big picture of how hydro fits into our national energy policy</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Over the last decade we have emerged as the worlds leading producer of oil and natural gas and at the same time we lead the world in CO2 emission reductions a fact that proves that energy production and environmental protection are not mutually exclusive goals</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>WANO is organized through regional centers and includes every operating nuclear electric plant in the world</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>That is why he established an interagency working group focused on creating economic opportunities for communities impacted by the shift away from fossil fuels</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>What I find Congressman Deutsch very unfortunate is that our company who worked very hard in building something that is very unique that whoever the buyer is of our company whether it is Hutchinson One Power Singapore Technologies or it turns out to be somebody else is going to make an incredibly good acquisition because we built a worldwide platform that cost us over 12 billion</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Two years later in 2015 the integrated systems and part of the Western Area Power Administration in the upper Midwest joined SPP marking the first time a Federal power marketing administration chose to join the market</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>So I am going to read you something from the Orange County Register of March 12 2012 In fact Brazilians are spending so much that flights with Brazils top airline TAM originating in the United States have had to carry more fuel to accommodate the dramatically overweight baggage</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>And with Canadas vast proven oil reserves the prospect of North American energy independence is no longer political rhetoric but a promising reality</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>These include Adding new audit programs Creating guidelines for disclosure of reliability violations Strengthening existing reliability standards and enhancing compliance with reliability rules Improving operator training and Enhancing vegetation management practices around power lines</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>As Ohioans discuss this issue across the state we hear one overriding concern maintaining our affordable reliable power is critical to both the pocketbooks of Ohioans and continued economic development within our state</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>I want to thank all the witnesses for being here and look forward to hearing your testimony as this committee evaluates the state of our wholesale electricity markets and I yield back</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Just as an illustration to make it as clear as I can with a chart that looks fairly complex I will try to simplify it at just how dramatic the changes are that I refer to in thein what is happening today in clean energy</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Because electricity markets are connected by wires different pollution standards promote a survival of the filthiest market where the power plants that are the dirtiest run harder because they can slightly underbid cleaner generators</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Certainly methane capture from landfills is fairly easy to measure</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>And I see no way that energy costs are going down</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Were you involved in any communications with the White House to push the Department of Energy to speed this thing along</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
           <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
         </is>
       </c>
-      <c r="B401" t="n">
+      <c r="B801" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/train/relevancy-train-78516.xlsx
+++ b/data/train/relevancy-train-78516.xlsx
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
